--- a/data/correlation/週頻kicks內外部資料.xlsx
+++ b/data/correlation/週頻kicks內外部資料.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O110"/>
+  <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -433,6 +433,11 @@
           <t>前三週文章負向比例</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>當期週數_int</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -482,6 +487,9 @@
       <c r="O2">
         <v>0.1538461538461539</v>
       </c>
+      <c r="P2">
+        <v>202101</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -531,6 +539,9 @@
       <c r="O3">
         <v>0.07142857142857142</v>
       </c>
+      <c r="P3">
+        <v>202102</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -580,6 +591,9 @@
       <c r="O4">
         <v>0.05263157894736842</v>
       </c>
+      <c r="P4">
+        <v>202103</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -629,6 +643,9 @@
       <c r="O5">
         <v>0.08333333333333333</v>
       </c>
+      <c r="P5">
+        <v>202104</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -678,6 +695,9 @@
       <c r="O6">
         <v>0.1111111111111111</v>
       </c>
+      <c r="P6">
+        <v>202105</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -727,6 +747,9 @@
       <c r="O7">
         <v>0.3333333333333333</v>
       </c>
+      <c r="P7">
+        <v>202106</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -776,6 +799,9 @@
       <c r="O8">
         <v>0.3125</v>
       </c>
+      <c r="P8">
+        <v>202107</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -825,6 +851,9 @@
       <c r="O9">
         <v>0.3125</v>
       </c>
+      <c r="P9">
+        <v>202108</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -874,6 +903,9 @@
       <c r="O10">
         <v>0.05882352941176471</v>
       </c>
+      <c r="P10">
+        <v>202109</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -923,6 +955,9 @@
       <c r="O11">
         <v>0.05882352941176471</v>
       </c>
+      <c r="P11">
+        <v>202110</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -972,6 +1007,9 @@
       <c r="O12">
         <v>0.1304347826086956</v>
       </c>
+      <c r="P12">
+        <v>202111</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1021,6 +1059,9 @@
       <c r="O13">
         <v>0.1666666666666667</v>
       </c>
+      <c r="P13">
+        <v>202112</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1070,6 +1111,9 @@
       <c r="O14">
         <v>0.2272727272727273</v>
       </c>
+      <c r="P14">
+        <v>202113</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1119,6 +1163,9 @@
       <c r="O15">
         <v>0.1904761904761905</v>
       </c>
+      <c r="P15">
+        <v>202114</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1168,6 +1215,9 @@
       <c r="O16">
         <v>0.2142857142857143</v>
       </c>
+      <c r="P16">
+        <v>202115</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1217,6 +1267,9 @@
       <c r="O17">
         <v>0.1</v>
       </c>
+      <c r="P17">
+        <v>202116</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1266,6 +1319,9 @@
       <c r="O18">
         <v>0.3333333333333333</v>
       </c>
+      <c r="P18">
+        <v>202117</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1315,6 +1371,9 @@
       <c r="O19">
         <v>0.2857142857142857</v>
       </c>
+      <c r="P19">
+        <v>202118</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1364,6 +1423,9 @@
       <c r="O20">
         <v>0.2941176470588235</v>
       </c>
+      <c r="P20">
+        <v>202119</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1413,6 +1475,9 @@
       <c r="O21">
         <v>0.1666666666666667</v>
       </c>
+      <c r="P21">
+        <v>202120</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1462,6 +1527,9 @@
       <c r="O22">
         <v>0.2</v>
       </c>
+      <c r="P22">
+        <v>202121</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1511,6 +1579,9 @@
       <c r="O23">
         <v>0.375</v>
       </c>
+      <c r="P23">
+        <v>202122</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1560,6 +1631,9 @@
       <c r="O24">
         <v>0.5</v>
       </c>
+      <c r="P24">
+        <v>202123</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1609,6 +1683,9 @@
       <c r="O25">
         <v>0.3333333333333333</v>
       </c>
+      <c r="P25">
+        <v>202124</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1658,6 +1735,9 @@
       <c r="O26">
         <v>0.1428571428571428</v>
       </c>
+      <c r="P26">
+        <v>202125</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1707,6 +1787,9 @@
       <c r="O27">
         <v>0.2222222222222222</v>
       </c>
+      <c r="P27">
+        <v>202126</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1756,6 +1839,9 @@
       <c r="O28">
         <v>0.2</v>
       </c>
+      <c r="P28">
+        <v>202127</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1805,6 +1891,9 @@
       <c r="O29">
         <v>0.2352941176470588</v>
       </c>
+      <c r="P29">
+        <v>202128</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1854,6 +1943,9 @@
       <c r="O30">
         <v>0.1739130434782609</v>
       </c>
+      <c r="P30">
+        <v>202129</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1903,6 +1995,9 @@
       <c r="O31">
         <v>0.1666666666666667</v>
       </c>
+      <c r="P31">
+        <v>202130</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1952,6 +2047,9 @@
       <c r="O32">
         <v>0.05555555555555555</v>
       </c>
+      <c r="P32">
+        <v>202131</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2001,6 +2099,9 @@
       <c r="O33">
         <v>0.0625</v>
       </c>
+      <c r="P33">
+        <v>202132</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2050,6 +2151,9 @@
       <c r="O34">
         <v>0.1333333333333333</v>
       </c>
+      <c r="P34">
+        <v>202133</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2099,6 +2203,9 @@
       <c r="O35">
         <v>0.3125</v>
       </c>
+      <c r="P35">
+        <v>202134</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2148,6 +2255,9 @@
       <c r="O36">
         <v>0.2941176470588235</v>
       </c>
+      <c r="P36">
+        <v>202135</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2197,6 +2307,9 @@
       <c r="O37">
         <v>0.25</v>
       </c>
+      <c r="P37">
+        <v>202136</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2246,6 +2359,9 @@
       <c r="O38">
         <v>0.08695652173913043</v>
       </c>
+      <c r="P38">
+        <v>202137</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2295,6 +2411,9 @@
       <c r="O39">
         <v>0.1923076923076923</v>
       </c>
+      <c r="P39">
+        <v>202138</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2344,6 +2463,9 @@
       <c r="O40">
         <v>0.1851851851851852</v>
       </c>
+      <c r="P40">
+        <v>202139</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2393,6 +2515,9 @@
       <c r="O41">
         <v>0.2</v>
       </c>
+      <c r="P41">
+        <v>202140</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2442,6 +2567,9 @@
       <c r="O42">
         <v>0.08333333333333333</v>
       </c>
+      <c r="P42">
+        <v>202141</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2491,6 +2619,9 @@
       <c r="O43">
         <v>0.05263157894736842</v>
       </c>
+      <c r="P43">
+        <v>202142</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2540,6 +2671,9 @@
       <c r="O44">
         <v>0.08695652173913043</v>
       </c>
+      <c r="P44">
+        <v>202143</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2589,6 +2723,9 @@
       <c r="O45">
         <v>0.15</v>
       </c>
+      <c r="P45">
+        <v>202144</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2638,6 +2775,9 @@
       <c r="O46">
         <v>0.2272727272727273</v>
       </c>
+      <c r="P46">
+        <v>202145</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2687,6 +2827,9 @@
       <c r="O47">
         <v>0.2857142857142857</v>
       </c>
+      <c r="P47">
+        <v>202146</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2736,6 +2879,9 @@
       <c r="O48">
         <v>0.2</v>
       </c>
+      <c r="P48">
+        <v>202147</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2785,6 +2931,9 @@
       <c r="O49">
         <v>0.12</v>
       </c>
+      <c r="P49">
+        <v>202148</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2834,6 +2983,9 @@
       <c r="O50">
         <v>0.1153846153846154</v>
       </c>
+      <c r="P50">
+        <v>202149</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2883,6 +3035,9 @@
       <c r="O51">
         <v>0.1176470588235294</v>
       </c>
+      <c r="P51">
+        <v>202150</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2932,6 +3087,9 @@
       <c r="O52">
         <v>0.15</v>
       </c>
+      <c r="P52">
+        <v>202151</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2981,6 +3139,9 @@
       <c r="O53">
         <v>0.125</v>
       </c>
+      <c r="P53">
+        <v>202152</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3030,6 +3191,9 @@
       <c r="O54">
         <v>0.16</v>
       </c>
+      <c r="P54">
+        <v>202201</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3079,6 +3243,9 @@
       <c r="O55">
         <v>0.24</v>
       </c>
+      <c r="P55">
+        <v>202202</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3128,6 +3295,9 @@
       <c r="O56">
         <v>0.25</v>
       </c>
+      <c r="P56">
+        <v>202203</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3177,6 +3347,9 @@
       <c r="O57">
         <v>0.2727272727272727</v>
       </c>
+      <c r="P57">
+        <v>202204</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3226,6 +3399,9 @@
       <c r="O58">
         <v>0.3</v>
       </c>
+      <c r="P58">
+        <v>202205</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3275,6 +3451,9 @@
       <c r="O59">
         <v>0.3157894736842105</v>
       </c>
+      <c r="P59">
+        <v>202206</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3324,6 +3503,9 @@
       <c r="O60">
         <v>0.25</v>
       </c>
+      <c r="P60">
+        <v>202207</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3373,6 +3555,9 @@
       <c r="O61">
         <v>0.1428571428571428</v>
       </c>
+      <c r="P61">
+        <v>202208</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3422,6 +3607,9 @@
       <c r="O62">
         <v>0.1</v>
       </c>
+      <c r="P62">
+        <v>202209</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3471,6 +3659,9 @@
       <c r="O63">
         <v>0.1</v>
       </c>
+      <c r="P63">
+        <v>202210</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3520,6 +3711,9 @@
       <c r="O64">
         <v>0.05555555555555555</v>
       </c>
+      <c r="P64">
+        <v>202211</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3569,6 +3763,9 @@
       <c r="O65">
         <v>0.05</v>
       </c>
+      <c r="P65">
+        <v>202212</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3618,6 +3815,9 @@
       <c r="O66">
         <v>0</v>
       </c>
+      <c r="P66">
+        <v>202213</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3667,6 +3867,9 @@
       <c r="O67">
         <v>0.125</v>
       </c>
+      <c r="P67">
+        <v>202214</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3716,6 +3919,9 @@
       <c r="O68">
         <v>0.125</v>
       </c>
+      <c r="P68">
+        <v>202215</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3765,6 +3971,9 @@
       <c r="O69">
         <v>0.25</v>
       </c>
+      <c r="P69">
+        <v>202216</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3814,6 +4023,9 @@
       <c r="O70">
         <v>0.2142857142857143</v>
       </c>
+      <c r="P70">
+        <v>202217</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3863,6 +4075,9 @@
       <c r="O71">
         <v>0.2142857142857143</v>
       </c>
+      <c r="P71">
+        <v>202218</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3912,6 +4127,9 @@
       <c r="O72">
         <v>0.06666666666666667</v>
       </c>
+      <c r="P72">
+        <v>202219</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3961,6 +4179,9 @@
       <c r="O73">
         <v>0</v>
       </c>
+      <c r="P73">
+        <v>202220</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4010,6 +4231,9 @@
       <c r="O74">
         <v>0.04545454545454546</v>
       </c>
+      <c r="P74">
+        <v>202221</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4059,6 +4283,9 @@
       <c r="O75">
         <v>0.09523809523809523</v>
       </c>
+      <c r="P75">
+        <v>202222</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4108,6 +4335,9 @@
       <c r="O76">
         <v>0.2352941176470588</v>
       </c>
+      <c r="P76">
+        <v>202223</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4157,6 +4387,9 @@
       <c r="O77">
         <v>0.25</v>
       </c>
+      <c r="P77">
+        <v>202224</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4206,6 +4439,9 @@
       <c r="O78">
         <v>0.1923076923076923</v>
       </c>
+      <c r="P78">
+        <v>202225</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4255,6 +4491,9 @@
       <c r="O79">
         <v>0.09090909090909091</v>
       </c>
+      <c r="P79">
+        <v>202226</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4304,6 +4543,9 @@
       <c r="O80">
         <v>0.0625</v>
       </c>
+      <c r="P80">
+        <v>202227</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4353,6 +4595,9 @@
       <c r="O81">
         <v>0.03448275862068965</v>
       </c>
+      <c r="P81">
+        <v>202228</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4402,6 +4647,9 @@
       <c r="O82">
         <v>0.04761904761904762</v>
       </c>
+      <c r="P82">
+        <v>202229</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4451,6 +4699,9 @@
       <c r="O83">
         <v>0</v>
       </c>
+      <c r="P83">
+        <v>202230</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4500,6 +4751,9 @@
       <c r="O84">
         <v>0.04347826086956522</v>
       </c>
+      <c r="P84">
+        <v>202231</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4549,6 +4803,9 @@
       <c r="O85">
         <v>0.04761904761904762</v>
       </c>
+      <c r="P85">
+        <v>202232</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4598,6 +4855,9 @@
       <c r="O86">
         <v>0.1052631578947368</v>
       </c>
+      <c r="P86">
+        <v>202233</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4647,6 +4907,9 @@
       <c r="O87">
         <v>0.07692307692307693</v>
       </c>
+      <c r="P87">
+        <v>202234</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4696,6 +4959,9 @@
       <c r="O88">
         <v>0.09090909090909091</v>
       </c>
+      <c r="P88">
+        <v>202235</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4745,6 +5011,9 @@
       <c r="O89">
         <v>0.04166666666666666</v>
       </c>
+      <c r="P89">
+        <v>202236</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4794,6 +5063,9 @@
       <c r="O90">
         <v>0.07407407407407407</v>
       </c>
+      <c r="P90">
+        <v>202237</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4843,6 +5115,9 @@
       <c r="O91">
         <v>0.1153846153846154</v>
       </c>
+      <c r="P91">
+        <v>202238</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4892,6 +5167,9 @@
       <c r="O92">
         <v>0.1304347826086956</v>
       </c>
+      <c r="P92">
+        <v>202239</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4941,6 +5219,9 @@
       <c r="O93">
         <v>0.1875</v>
       </c>
+      <c r="P93">
+        <v>202240</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4990,6 +5271,9 @@
       <c r="O94">
         <v>0.2058823529411765</v>
       </c>
+      <c r="P94">
+        <v>202241</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5039,6 +5323,9 @@
       <c r="O95">
         <v>0.2051282051282051</v>
       </c>
+      <c r="P95">
+        <v>202242</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5088,6 +5375,9 @@
       <c r="O96">
         <v>0.25</v>
       </c>
+      <c r="P96">
+        <v>202243</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5137,6 +5427,9 @@
       <c r="O97">
         <v>0.2857142857142857</v>
       </c>
+      <c r="P97">
+        <v>202244</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5186,6 +5479,9 @@
       <c r="O98">
         <v>0.3043478260869565</v>
       </c>
+      <c r="P98">
+        <v>202245</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5235,6 +5531,9 @@
       <c r="O99">
         <v>0.2142857142857143</v>
       </c>
+      <c r="P99">
+        <v>202246</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5284,6 +5583,9 @@
       <c r="O100">
         <v>0.1290322580645161</v>
       </c>
+      <c r="P100">
+        <v>202247</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5333,6 +5635,9 @@
       <c r="O101">
         <v>0.1923076923076923</v>
       </c>
+      <c r="P101">
+        <v>202248</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5382,6 +5687,9 @@
       <c r="O102">
         <v>0.15</v>
       </c>
+      <c r="P102">
+        <v>202249</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5431,6 +5739,9 @@
       <c r="O103">
         <v>0.1666666666666667</v>
       </c>
+      <c r="P103">
+        <v>202250</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5480,6 +5791,9 @@
       <c r="O104">
         <v>0.08695652173913043</v>
       </c>
+      <c r="P104">
+        <v>202251</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5529,6 +5843,9 @@
       <c r="O105">
         <v>0.1666666666666667</v>
       </c>
+      <c r="P105">
+        <v>202252</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5578,6 +5895,9 @@
       <c r="O106">
         <v>0.2</v>
       </c>
+      <c r="P106">
+        <v>202301</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5627,6 +5947,9 @@
       <c r="O107">
         <v>0.3529411764705883</v>
       </c>
+      <c r="P107">
+        <v>202302</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5676,6 +5999,9 @@
       <c r="O108">
         <v>0.2631578947368421</v>
       </c>
+      <c r="P108">
+        <v>202303</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5725,6 +6051,9 @@
       <c r="O109">
         <v>0.25</v>
       </c>
+      <c r="P109">
+        <v>202304</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5773,6 +6102,9 @@
       </c>
       <c r="O110">
         <v>0.1764705882352941</v>
+      </c>
+      <c r="P110">
+        <v>202305</v>
       </c>
     </row>
   </sheetData>
